--- a/example.xlsx
+++ b/example.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -320,7 +320,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -346,22 +346,22 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="0" t="inlineStr">
         <is>
           <t>MIT Maker Portfolio Video (Accepted EA 2025) - YouTube</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="0" t="inlineStr">
         <is>
           <t>https://www.youtube.com/watch?v=2sOGvDlVT1Q</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="0" t="inlineStr">
         <is>
           <t>hey this is aaron and welcome to my maker portfolio for the last month and a half i've been hard at work on one of my favorite projects yet an active stability system for model rockets that i call zenith thrust vector rocketry is for the motorist gimbal to keep the rocket on course this technique is extremely common in the real space industry i realized that there were three major components to the project in order they are a guidance computer to know where the rocket is software to compute corrections and hardware to carry those corrections out i have experience with arduino from previous projects but i decided on the teensy line of microcontrollers because of their arm processor which runs faster for the purposes of space and volume i decided to make a fully custom pcb designed in eagle which came with its own routing challenges especially as it was four layer the main components are gps microcontroller bootloader chip sensor cluster and n channel monsters for the power system on the back there's most of the passive components as well as the sd card slot for data logging so after spending several weeks designing routing stuffing assembling and debugging the main guidance computer and a pad controller i couldn't believe it when it worked what oh my god the guidance software was also key one important part was the safety system which has hardware and software components for orientation tracking on the pad is a complementary filter however in flight i have to use just the gyro because of vibration all parts of the rocket were designed in solidworks and 3d printed i took advantage of advanced features like solidworks simulation to ensure they wouldn't break in flight building on my experience as engineering captain of my school's frc robotics team i tested this project in several stages as the hardware and software evolved i started with just few ejection testing and later moved up to testing in the gimbal as the clock found down to launch i was nervous to see how things would turn out one okay so clearly that wasn't the original flight plan but let's look closer on startup the rocket pitches over because of mount misalignment then you can see the mount try to correct even under dampen this validates that the control system is working this is also reflected in the flight data given the scope and difficulty of this project i'm still extremely proud of the work and progress i've made in such a short time in the future i'm excited to see where this project and others my portfolio will end up with more knowledge and skills</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" s="0" t="inlineStr">
         <is>
           <t>1. "Zenith Thrust Vector Rocketry": A model rocket stabilization system where a motor gimbal is used to keep the rocket on-course, mirroring techniques used in the space industry. 
 2. "Guidance Computer Creation": Development of guidance computer using teensy line of microcontrollers for fast running ARM processor and custom PCB designed in Eagle.
@@ -373,22 +373,22 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="0" t="inlineStr">
         <is>
           <t>MIT Maker Portfolio (Accepted Class of 2024!) - YouTube</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="0" t="inlineStr">
         <is>
           <t>https://www.youtube.com/watch?v=azcRRL1tGGM</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="0" t="inlineStr">
         <is>
           <t>hello my name is Jacob Rodrigues and this is my MIT maker portfolio die I made this hat wall which is pretty cool and they made a two guitar stands but anyways let's get to the fun stuff [Music] so there's my over rocketry simulator it started off as a project for my AP computer science principles course but I continued developing it so I can use it to simulate my own rocket launches the program Falls a protocol that lets the users create a virtual rocket and guides them through finding air resistivity thruster rate ratios and ultimately whether the rocket can reach geostationary orbit Earth Leland Arian points or even martes now for the final project than my MIT mas tech machine learning course my part and I developed an algorithm that identifies exoplanets using data directly for the NASA Kepler satellite by analyzing relationship between COI scores and my curve intensities we're able to identify X plans with a 94% accuracy rate I now hope to recreate the algorithm so it takes data from the test online MIT instead he's Kepler officially decommissioned okay now this one's a fun one so as president software lead for my FRC robotics team me and my partner decided to create a program that allows our robot to drive smooth curves autonomously so in order to do this we use a process called quintic hermit spline interpolation which allowed us to generate forth to be polynomial curves given distance and angle to a final position our results look a little like this cool right so basing off our work in 2018 I wanted to make the motion profile generator more customizable so that any FRC team can drive similar curves in order to do this I made a separate program that allows users to enter parameters specific to their flying path so generate a cubic curve and spline that can be put in the place of the pre-existing Clinton hopefully I can pair this project with the current spatial perception technology in the spark lab at MIT so curves can be generated in response to the robots actual environment which will be really cool</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" s="0" t="inlineStr">
         <is>
           <t>1. "Rocketry Simulator Development": Jacob created a protocol-guided rocketry simulator, used for calculating air resistivity, thruster rate ratios, and the capability of a rocket to reach geostationary orbit, Lagrange points or Mars.
 2. "Exoplanet Identification Algorithm": In his MIT machine learning course, Jacob and his partner developed an algorithm which identifies exoplanets with a 94% accuracy rate by analyzing COI scores and flux curve intensities using data from the NASA Kepler satellite.
@@ -398,22 +398,22 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="0" t="inlineStr">
         <is>
           <t>MIT Maker Portfolio (Class of 2027) - YouTube</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="0" t="inlineStr">
         <is>
           <t>https://www.youtube.com/watch?v=Sht5Nenk3Dg</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="0" t="inlineStr">
         <is>
           <t>hi I'm Sean welcome to my maker portfolio I started making stuff in the summer during covet as a way to force myself to learn beginning with a quadrupedal robot I began by designing legs and CAD software and then 3D printed them to test their strength and stability on my desk this also gave me a chance to design inverse kinematic algorithms which allow my robot to calculate the angle of each of its leg joints given a demand foot position this is indescribably satisfying after various improvements I designed and built the rest of the robot including a custom circuit board following my tests with one leg implementing inverse kinematics on all four proved simple and I quickly developed standing rotational and translational movement with stability control too I created a walking gate generator based on a desired walking speed step distance height and the number of feet lifted at a time with lots of testing and a lot of falling my little robot could walk but I realized that if the legs could feel pressure it'd be easier to detect Falls so I created open Servo or replacement driver for small 20 kilogram Servo Motors open Servo is a combination of two boards one equipped with a microcontroller current sensor and Driver the other with an encoder and a thermometer this allows it to accurately control the absolute position velocity and torque output of the motor it's designed to be placed into an existing motor as a stock up but my programming setup uses spring-loaded pins I can connect to it over USB and a command line interface with numerous PID controllers open Servo can turn with predetermined and configurable linear exponential and sinusoidal trajectories which you can see on the command line plot but I discovered that by controlling motor input voltage and power duty cycle that I could much more accurately control velocity and torque output at the same time here each line is a different constant torque that also represents different velocities at that torque with this in mind open Servo 2 is currently in progress on my robotics team team inspiration I worked on the lower current power distribution system for the wamvi autonomous boat and made a racquetball launcher for the robot X competition I also programmed an autonomous drone using a pixhawk and Raspberry Pi 4 that can take off fly and land with GPS feedback and zero manual control</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" s="0" t="inlineStr">
         <is>
           <t>1. "Quadrupedal Robot Development": The video showcases the creation of a quadrupedal robot, including designing leg structures in CAD software, 3D printing them, and testing for strength and stability. The creator also designs and implements inverse kinematic algorithms for joint angle calculations.
 2. "Custom Circuit Board Design": In this project, a custom circuit board is designed and built to complete the construction of the quadrupedal robot. The project involves circuit board testing and full robot assembly.
@@ -428,22 +428,22 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="0" t="inlineStr">
         <is>
           <t>MIT's SECRET Admission Hack | MIT Maker Portfolio - YouTube</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="0" t="inlineStr">
         <is>
           <t>https://www.youtube.com/watch?v=VZ4W7OBQ7rY</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" s="0" t="inlineStr">
         <is>
           <t>mit had its lowest acceptance rate at 4.7 admitting just 697 students out of over 14 000 applicants which means that the competition is at its peak right now and today i'm going to tell you guys a secret that can very well be the reason why you get into mit let's get started the number one university in the world mit is famous for its programs in engineering and physical sciences and it's by far the world's most renowned institute for higher learning and is known for its rigorous curriculum excellent research and outstanding faculty nonetheless coming back to the big question how do you actually tackle mit's competitive application and what can you do to actually stand out from the crowd this is where mit's maker portfolio comes in and this is the small supplemental optional part of the college applications that most applicants just you know don't even bother to go through because it's optional now mit gives high school students the opportunity to showcase their projects research experience and their entire skill set in the form of a maker portfolio these projects can be related to literally anything from science to engineering to music to art now a lot of these maker portfolios that have been accepted were you know some video games that students made or even like a rocket launcher it can literally be anything as long as it shows what your area of interest is and what you've done to build your skill set around that so i did my homework for this video and i found a ton of mit's maker portfolio submissions by students and their outstanding projects so i want to give them some recognition so let's take a look at some of the actual projects that have been submitted into mit's maker portfolio hey this is aaron and welcome to my maker portfolio hi i'm david ray and this is my makeup portfolio i'm jake and i've been working on something that i think is pretty cool for about a year hi i'm prakr gupta and this is my makeup portfolio hi my name is subtershi and i'm a maker for the last month and a half i've been hard at work on one of my favorite projects yet an active stability system for model rockets that i call zenith i created cuddle gel a sustainable cost effective and diy water purifier kadalin sanskrit means banana and gel means water i've made games such as snake brick breaker and not some crosses camfriend is a flutter app that i developed and released to the app store and play store that automatically solves and balances chemical equations now i know that you know starting off with something like the maker portfolio especially in countries like india can be a big task because you know honestly as a high school student i wouldn't know where to start and what to do but it can be as simple as first trying to think of an idea that you can work on start to learn how to read research papers research research publications approach a few of the teachers that teach some of the subjects that you're interested in whether it's physics math biology chemistry whatever it is maybe they can give you some insight and direction i know a lot of students are currently looking to find that skill set and this is where i'd like to introduce you guys to skillshare skillshare is an online learning community with thousands of online classes and members across 150 countries now there are a variety of classes on skillshare but the one that i particularly found interesting for you guys today is how to read an academic journal article by lyndon walker that talks about where to access these articles and how to kind of sort through them how to go through and read the research papers the second class i would recommend high school students or even college students take is introduction to arduino by mark this is basically like an electronic component that has a ton of computing capabilities so anything that you're looking to automate can be done with the help of arduino it combines a little bit of electrical engineering electronics as well as some coding so having a fundamental knowledge on all three of these platforms can never go wrong i personally use this even as a biomedical engineer in my master's degree the first 1000 people to use the link or my code crazy medusa will get a one month free trial of skillshare so definitely check that out but the one big resource that i have for you guys is that if you're kind of at that point where you have that idea and you're stuck with what the next steps are you can check out incognito labs at incognito blueprints.com where every single student who submits their project idea gets a ton of free resources to help you understand what goes into moving an idea forward in terms of research discovery a business proposal a pitch a business plan all of that sort and some of the projects even get funded so definitely check that out now mit states that the maker portfolio is completely an optional set that is attached to the college application it's part of the supplemental information so which shows that you know a half of you guys are probably not going to fill that out because it's optional i know i've done that but if you actually go ahead and you decide to kind of participate in this whole optional section it gives you that additional edge to stand out from the crowd because you're already cutting your competition in half just by submitting and actually participating in this process it's just my personal recommendation if you guys are in a position where you're in your high school you have some time to spare and you're thinking about you know studying abroad you've made up your mind and you have that time definitely take some time out to develop on skills and build on this maker portfolio a huge shout out to all of the wonderful students um whose projects that we viewed in this video and that's pretty much all that i had for this video like and subscribe if you haven't already and i'll see you guys in the next one bye [Music] you</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve">1. Project: "Zenith - Active Stability System"
 Explanation: A student created the Zenith, an active stability system for model rockets.
@@ -460,22 +460,22 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="0" t="inlineStr">
         <is>
           <t>MIT Maker Portfolio - Yifei Yang - YouTube</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="0" t="inlineStr">
         <is>
           <t>https://www.youtube.com/watch?v=GEnvBY84Z3o</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" s="0" t="inlineStr">
         <is>
           <t>this is my makers portfolio i have two minutes so let's go i've been a member of my high school's robotics team for about seven years now so i've worked on quite a few projects but the robot i'm most proud of has to be the one we developed for the 2019 first robotics competition that year i was elected head of programming and concept design so i had almost full creative freedom to create the bathroom what there is it started in my garage when i borrowed an old robot throughout accelerometers as well as the ultrasonic sensors to automate certain actions like trajectory planning then i worked with friends and mentors to automate the climbing sequence as well as the ball intake system which to my surprise worked on first try i was later tasked with automating the ball shooting sequence now this time i had my fair share of failures but hey with some slight adjustments to the robot i managed to get it accurate enough to make lebron pass now unfortunately i never got to see my robot perform on the field due to the 2020 pandemic but you know what at least the process was fun wait 2020 that was two years ago so what have i been doing in the meantime well online classes were pretty boring so i had to do something and that's exactly how this little baby came to life it's a quite repaired robot model after boston dynamics spot i wanted to dive into the world of dynamic movement basically walking on legs i designed all the pieces on the free version of fusion 360 then printed them out with my resin 3d printer then i realized that nothing worked i mean the pieces were too heavy and the motors were underpowered so back to the drawing what i went this time i used fusion 360's topology optimization to help my robot lose some weight after many iterations as well as shortening the legs i finally had a working rollout it then took me a few weeks to figure out how inverse kinematics worked and how to implement that into the code i use an xbox controller to send inputs to raspberry pi then a small computer uses the coordinates as inputs and uses custom code to calculate joint angles the value are then sent to the pollutant maestro microcontroller which doesn't make the robot move pretty cool isn't it</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D6" s="0" t="inlineStr">
         <is>
           <t>1. "First Robotics Competition Robot"
 The video creator was head of programming and concept design for a robot developed for the 2019 First Robotics Competition which used accelerometers and ultrasonic sensors to automate certain actions like trajectory planning with an automated climbing sequence and ball intake system.
@@ -484,6 +484,150 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>MIT Maker Portfolio Video (Accepted EA 2025) - YouTube</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=2sOGvDlVT1Q</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>hey this is aaron and welcome to my maker portfolio for the last month and a half i've been hard at work on one of my favorite projects yet an active stability system for model rockets that i call zenith thrust vector rocketry is for the motorist gimbal to keep the rocket on course this technique is extremely common in the real space industry i realized that there were three major components to the project in order they are a guidance computer to know where the rocket is software to compute corrections and hardware to carry those corrections out i have experience with arduino from previous projects but i decided on the teensy line of microcontrollers because of their arm processor which runs faster for the purposes of space and volume i decided to make a fully custom pcb designed in eagle which came with its own routing challenges especially as it was four layer the main components are gps microcontroller bootloader chip sensor cluster and n channel monsters for the power system on the back there's most of the passive components as well as the sd card slot for data logging so after spending several weeks designing routing stuffing assembling and debugging the main guidance computer and a pad controller i couldn't believe it when it worked what oh my god the guidance software was also key one important part was the safety system which has hardware and software components for orientation tracking on the pad is a complementary filter however in flight i have to use just the gyro because of vibration all parts of the rocket were designed in solidworks and 3d printed i took advantage of advanced features like solidworks simulation to ensure they wouldn't break in flight building on my experience as engineering captain of my school's frc robotics team i tested this project in several stages as the hardware and software evolved i started with just few ejection testing and later moved up to testing in the gimbal as the clock found down to launch i was nervous to see how things would turn out one okay so clearly that wasn't the original flight plan but let's look closer on startup the rocket pitches over because of mount misalignment then you can see the mount try to correct even under dampen this validates that the control system is working this is also reflected in the flight data given the scope and difficulty of this project i'm still extremely proud of the work and progress i've made in such a short time in the future i'm excited to see where this project and others my portfolio will end up with more knowledge and skills</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1. "Zenith Thrust Vector Rocketry": This project is about designing an active stability system for model rockets using techniques common in the real space industry. 
+2. "Guidance Computer Implementation": A guidance computer was used to determine the rocket's location, using a Teensy line of microcontrollers with an ARM processor for increased speed.
+3. "PCB design in Eagle": A fully-custom, four-layer PCB featuring GPS, a microcontroller, a bootloader chip, a sensor cluster, and N-channel MOSFETs for the power system was designed in Eagle.
+4. "Debugging Guidance Computer and Pad Controller": The main guidance computer and a pad controller were put through several weeks of design, routing, stuffing, assembling, and debugging before being successfully operational.
+5. "Development of Guidance Software": This software computed corrections and included a safety system of both hardware and software components. It used a complementary filter for orientation tracking on the pad and a gyro in flight.
+6. "3D Design and Creation of Rocket Parts": All parts of the rocket were created using Solidworks and 3D printing, with advanced features like Solidworks simulation used to ensure the parts wouldn't break in flight.
+7. "Staged Testing and Evolution of Rocket": The rocket went through several stages of testing, from fuel ejection to gimbal testing, as the hardware and software evolved.
+8. "Analysis and Validation of Control System": A post-flight analysis revealed that even with mount misalignment, the control system worked as intended, providing corrections to the rocket's course, as evidenced by flight data.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>MIT Maker Portfolio (Class of 2027) - YouTube</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=Sht5Nenk3Dg</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>hi I'm Sean welcome to my maker portfolio I started making stuff in the summer during covet as a way to force myself to learn beginning with a quadrupedal robot I began by designing legs and CAD software and then 3D printed them to test their strength and stability on my desk this also gave me a chance to design inverse kinematic algorithms which allow my robot to calculate the angle of each of its leg joints given a demand foot position this is indescribably satisfying after various improvements I designed and built the rest of the robot including a custom circuit board following my tests with one leg implementing inverse kinematics on all four proved simple and I quickly developed standing rotational and translational movement with stability control too I created a walking gate generator based on a desired walking speed step distance height and the number of feet lifted at a time with lots of testing and a lot of falling my little robot could walk but I realized that if the legs could feel pressure it'd be easier to detect Falls so I created open Servo or replacement driver for small 20 kilogram Servo Motors open Servo is a combination of two boards one equipped with a microcontroller current sensor and Driver the other with an encoder and a thermometer this allows it to accurately control the absolute position velocity and torque output of the motor it's designed to be placed into an existing motor as a stock up but my programming setup uses spring-loaded pins I can connect to it over USB and a command line interface with numerous PID controllers open Servo can turn with predetermined and configurable linear exponential and sinusoidal trajectories which you can see on the command line plot but I discovered that by controlling motor input voltage and power duty cycle that I could much more accurately control velocity and torque output at the same time here each line is a different constant torque that also represents different velocities at that torque with this in mind open Servo 2 is currently in progress on my robotics team team inspiration I worked on the lower current power distribution system for the wamvi autonomous boat and made a racquetball launcher for the robot X competition I also programmed an autonomous drone using a pixhawk and Raspberry Pi 4 that can take off fly and land with GPS feedback and zero manual control</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1. Project: Quadrupedal Robot Creation
+Sean designed and built a quadrupedal robot implementing inverse kinematic algorithms and utilizing CAD software for the design of its components which are then 3D printed.
+2. Project: Custom Circuit Board 
+Sean designed a custom circuit board to cater to the functionality of the quadrupedal robot, enhancing its movement capability.
+3. Project: Walking Gate Generator Implementation
+Created a walking gate generator for the quadrupedal robot that is adjusted with walking speed, step distance, height, and the number of feet lifted at a time.
+4. Project: Open Servo Creation
+Developed Open Servo, a replacement driver for small 20kg Servo motors, equipped with a microcontroller, current sensor, driver, encoder, thermometer, and numerous PID controllers, that can control the absolute position, velocity, and torque output of the motor.
+5. Project: Open Servo 2 Development
+This project aims to improve on Open Servo by providing more accuracy in the control of velocity and torque output of a motor through motor input voltage and power duty cycle adjustment.
+6. Project: Lower Current Power Distribution System
+Part of a team developing a lower current power distribution system for the WAM-V autonomous boat as part of a robotics team.
+7. Project: Racquetball Launcher
+Sean designed and made a racquetball launcher for the RobotX competition.
+8. Project: Autonomous Drone Programming
+Programmed an autonomous drone using a Pixhawk and Raspberry Pi 4 that can complete autonomous operations such as taking off, flying, and landing using GPS feedback.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>MIT Maker Portfolio (Accepted Class of 2024!) - YouTube</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=azcRRL1tGGM</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>hello my name is Jacob Rodrigues and this is my MIT maker portfolio die I made this hat wall which is pretty cool and they made a two guitar stands but anyways let's get to the fun stuff [Music] so there's my over rocketry simulator it started off as a project for my AP computer science principles course but I continued developing it so I can use it to simulate my own rocket launches the program Falls a protocol that lets the users create a virtual rocket and guides them through finding air resistivity thruster rate ratios and ultimately whether the rocket can reach geostationary orbit Earth Leland Arian points or even martes now for the final project than my MIT mas tech machine learning course my part and I developed an algorithm that identifies exoplanets using data directly for the NASA Kepler satellite by analyzing relationship between COI scores and my curve intensities we're able to identify X plans with a 94% accuracy rate I now hope to recreate the algorithm so it takes data from the test online MIT instead he's Kepler officially decommissioned okay now this one's a fun one so as president software lead for my FRC robotics team me and my partner decided to create a program that allows our robot to drive smooth curves autonomously so in order to do this we use a process called quintic hermit spline interpolation which allowed us to generate forth to be polynomial curves given distance and angle to a final position our results look a little like this cool right so basing off our work in 2018 I wanted to make the motion profile generator more customizable so that any FRC team can drive similar curves in order to do this I made a separate program that allows users to enter parameters specific to their flying path so generate a cubic curve and spline that can be put in the place of the pre-existing Clinton hopefully I can pair this project with the current spatial perception technology in the spark lab at MIT so curves can be generated in response to the robots actual environment which will be really cool</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1. "Rocketry Simulator Creation": Jacob Rodrigues developed a rocketry simulator for his AP computer science principles course, which lets users craft a virtual rocket and assists them in deriving air resistivity, thruster rate ratios, and the possibility of reaching specified space destinations.
+2. "Exoplanet Identification Algorithm": As part of his MIT mas tech machine learning course, Rodrigues and his partner devised an algorithm utilizing data from NASA's Kepler satellite to identify exoplanets by assessing the correlation between COI scores and light curve intensities, achieving 94% precision.
+3. "FRC Robotics Autonomous Driving Program": As the software lead for his FRC robotics team, Rodrigues and his partner designed a program granting their robot the ability to drive smooth curves autonomously using a technique called quintic hermit spline interpolation.
+4. "Motion Profile Generator Customization": Expanding on his 2018 work, Rodrigues developed a separate, user-friendly program allowing FRC teams to generate a cubic curve and spline suitable to their chosen path by entering path specific parameters. 
+5. "Spatial Perception Technology Integration": Rodrigues aims to collaborate this project with the current spatial perception technology at the Spark lab at MIT so that curves are autonomously created in response to the robots' real-time environment.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>MIT's SECRET Admission Hack | MIT Maker Portfolio - YouTube</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=VZ4W7OBQ7rY</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>mit had its lowest acceptance rate at 4.7 admitting just 697 students out of over 14 000 applicants which means that the competition is at its peak right now and today i'm going to tell you guys a secret that can very well be the reason why you get into mit let's get started the number one university in the world mit is famous for its programs in engineering and physical sciences and it's by far the world's most renowned institute for higher learning and is known for its rigorous curriculum excellent research and outstanding faculty nonetheless coming back to the big question how do you actually tackle mit's competitive application and what can you do to actually stand out from the crowd this is where mit's maker portfolio comes in and this is the small supplemental optional part of the college applications that most applicants just you know don't even bother to go through because it's optional now mit gives high school students the opportunity to showcase their projects research experience and their entire skill set in the form of a maker portfolio these projects can be related to literally anything from science to engineering to music to art now a lot of these maker portfolios that have been accepted were you know some video games that students made or even like a rocket launcher it can literally be anything as long as it shows what your area of interest is and what you've done to build your skill set around that so i did my homework for this video and i found a ton of mit's maker portfolio submissions by students and their outstanding projects so i want to give them some recognition so let's take a look at some of the actual projects that have been submitted into mit's maker portfolio hey this is aaron and welcome to my maker portfolio hi i'm david ray and this is my makeup portfolio i'm jake and i've been working on something that i think is pretty cool for about a year hi i'm prakr gupta and this is my makeup portfolio hi my name is subtershi and i'm a maker for the last month and a half i've been hard at work on one of my favorite projects yet an active stability system for model rockets that i call zenith i created cuddle gel a sustainable cost effective and diy water purifier kadalin sanskrit means banana and gel means water i've made games such as snake brick breaker and not some crosses camfriend is a flutter app that i developed and released to the app store and play store that automatically solves and balances chemical equations now i know that you know starting off with something like the maker portfolio especially in countries like india can be a big task because you know honestly as a high school student i wouldn't know where to start and what to do but it can be as simple as first trying to think of an idea that you can work on start to learn how to read research papers research research publications approach a few of the teachers that teach some of the subjects that you're interested in whether it's physics math biology chemistry whatever it is maybe they can give you some insight and direction i know a lot of students are currently looking to find that skill set and this is where i'd like to introduce you guys to skillshare skillshare is an online learning community with thousands of online classes and members across 150 countries now there are a variety of classes on skillshare but the one that i particularly found interesting for you guys today is how to read an academic journal article by lyndon walker that talks about where to access these articles and how to kind of sort through them how to go through and read the research papers the second class i would recommend high school students or even college students take is introduction to arduino by mark this is basically like an electronic component that has a ton of computing capabilities so anything that you're looking to automate can be done with the help of arduino it combines a little bit of electrical engineering electronics as well as some coding so having a fundamental knowledge on all three of these platforms can never go wrong i personally use this even as a biomedical engineer in my master's degree the first 1000 people to use the link or my code crazy medusa will get a one month free trial of skillshare so definitely check that out but the one big resource that i have for you guys is that if you're kind of at that point where you have that idea and you're stuck with what the next steps are you can check out incognito labs at incognito blueprints.com where every single student who submits their project idea gets a ton of free resources to help you understand what goes into moving an idea forward in terms of research discovery a business proposal a pitch a business plan all of that sort and some of the projects even get funded so definitely check that out now mit states that the maker portfolio is completely an optional set that is attached to the college application it's part of the supplemental information so which shows that you know a half of you guys are probably not going to fill that out because it's optional i know i've done that but if you actually go ahead and you decide to kind of participate in this whole optional section it gives you that additional edge to stand out from the crowd because you're already cutting your competition in half just by submitting and actually participating in this process it's just my personal recommendation if you guys are in a position where you're in your high school you have some time to spare and you're thinking about you know studying abroad you've made up your mind and you have that time definitely take some time out to develop on skills and build on this maker portfolio a huge shout out to all of the wonderful students um whose projects that we viewed in this video and that's pretty much all that i had for this video like and subscribe if you haven't already and i'll see you guys in the next one bye [Music] you</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1. "Zenith: Rocket Stability System" - This is a system for model rockets that enhances their stability mid-flight. 
+2. "Cuddle Gel: DIY Water Purifier" - A project involving a sustainable, cost-effective, and DIY water purifier named Cuddle Gel.
+3. "Classic Games Recreated" - The student developed and coded familiar games such as Snake, Brick Breaker, and Noughts &amp; Crosses.
+4. "ChemFriend: Chemistry Solver App" - A Flutter app released on app stores which can automatically solve and balance chemical equations. 
+5. "Introduction to Academic Journals" - A project focused on learning how to read and interpret academic research papers.
+6. "Introduction to Arduino" - A project that involved learning electronics and coding using Arduino, an open-source electronics platform.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>MIT Maker Portfolio (Accepted) - YouTube</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=qNCb0IJzTts</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>hi I'm chase Reid welcome to my maker portfolio from the dawn of humankind all throughout our history creation has been an innate human passion no matter who you were or where you came from you were endowed with a special ability a gift to create from our greatest discoveries to our most important breakthroughs creation has powered them all and although none of my creations have quite yet attained such a significance I believe they too will change the world today I'm gonna share with you two of my most coveted creations that have not only changed my life but have and will change the lives of others prior to my junior year my school acquired what's called an idea or innovation design labs fanciful makerspace my physics teacher kindly asked me to design an rfid access system so students may access that new lab with their own key card so what did I do I did what any other maker would do I got my hands dirty using the Raspberry Pi electrical inputs and outputs a magnetical lock Python my sequel and flask I devised the solution that would allow students to scan their card then the reader would then take the scan input check it against a my sequel database and trick the electrical output thus opening magnetic lock if the user existed in the database so i'm a student's entry inside a level however towards the middle of junior year I found that my interest had shifted drastically I soon found myself enamored with machine learning and artificial intelligence so much so that I in turn algorithm that I developed in Python using scikit-learn in Theano into a research competition this algorithm was able to more accurately diagnose breast cancer from nanogram data than an actual pathologist that was only in the span of a year and a half in my four years at MIT I'll mold the future</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1. "RFID Access System for Lab"
+Chase Reid designed an RFID (Radio-frequency Identification) system using Raspberry Pi electrical inputs and outputs, a magnetic lock, Python, My sequel and flask, to permit students access the lab with their own key card. This process involved scanning the card, checking the information against a My sequel database, and triggering the electrical output to open the magnetic lock.
+2. "Machine Learning Algorithm for Cancer Diagnosis"
+Chase developed a machine learning algorithm in Python using Scikit-Learn and Theano to diagnose breast cancer from mammogram data more accurately than a pathologist, demonstrating a newfound interest in artificial intelligence.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
